--- a/data/PGA_codes.xlsx
+++ b/data/PGA_codes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/PGA_flags/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/PGA_flags/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25BAD5C-B64C-C848-901C-8CC35B785C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A6EE4-4851-1E41-8A22-02330EBFF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21580" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{1F8C4334-B092-1C4F-B6A9-3DA175BF81FB}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Tariff Flag Code Definition</t>
   </si>
   <si>
-    <t xml:space="preserve">PGA Compliance Message (see final in shared google drive) </t>
-  </si>
-  <si>
     <t>Website Link</t>
   </si>
   <si>
@@ -693,12 +690,15 @@
   <si>
     <t>Documents</t>
   </si>
+  <si>
+    <t>PGA Compliance Message</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,12 +771,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1334,8 +1328,8 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:J1048576"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1368,917 +1362,917 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="10">
         <v>370</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="10">
         <v>370</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="G22" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="F23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="H23" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="G24" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="G25" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="G26" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="G27" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="E28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="H34" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="F39" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="G39" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="F40" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="G40" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>132</v>
-      </c>
       <c r="G41" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="G44" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="H44" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="F45" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>148</v>
-      </c>
       <c r="G45" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>151</v>
-      </c>
       <c r="G46" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="G47" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -2286,7 +2280,7 @@
     </row>
     <row r="51" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -2294,27 +2288,27 @@
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/PGA_codes.xlsx
+++ b/data/PGA_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/PGA_flags/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A6EE4-4851-1E41-8A22-02330EBFF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C93A87-E505-1840-A736-88B1CCF10EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21580" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{1F8C4334-B092-1C4F-B6A9-3DA175BF81FB}"/>
+    <workbookView xWindow="10800" yWindow="1440" windowWidth="49840" windowHeight="22460" xr2:uid="{1F8C4334-B092-1C4F-B6A9-3DA175BF81FB}"/>
   </bookViews>
   <sheets>
     <sheet name="PGA Codes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     https://drive.google.com/drive/folders/1rlmWbwvHVpr1x24UQi9n8bBrIUU2R3Do</t>
       </text>
     </comment>
-    <comment ref="F8" authorId="1" shapeId="0" xr:uid="{BBC42273-06E2-BB49-8C82-BDA5B372E345}">
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{BBC42273-06E2-BB49-8C82-BDA5B372E345}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="179">
   <si>
     <t>Code</t>
   </si>
@@ -142,11 +142,6 @@
     <t>EP5</t>
   </si>
   <si>
-    <t>PS1
- PS2
- PS3</t>
-  </si>
-  <si>
     <t>Pesticide specific data may be required</t>
   </si>
   <si>
@@ -266,13 +261,6 @@
     <t>NHT</t>
   </si>
   <si>
-    <t>MVS
- REI
- TPE 
- OEI
- OFF</t>
-  </si>
-  <si>
     <t>DOT/National Highway Traffic Safety Administration HS-7 data
  may be required</t>
   </si>
@@ -309,20 +297,303 @@
     <t>Lacey Act specific data may be required</t>
   </si>
   <si>
+    <t>https://www.aphis.usda.gov/plant-imports/lacey-act/submit-declaration
+https://www.cbp.gov/trade/entry-summary/public-laws-impacting-trade/public-law-110-246/amended-lacey-act/guidance-lacey-act</t>
+  </si>
+  <si>
+    <t>https://www.ecfr.gov/current/title-7/subtitle-B/chapter-III</t>
+  </si>
+  <si>
+    <t>AL2</t>
+  </si>
+  <si>
+    <t>Lacey Act specific data required</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FDA</t>
+  </si>
+  <si>
+    <t>FDA data may be required 801(a)</t>
+  </si>
+  <si>
+    <t>This item may be flagged FD1 upon importation into the US . If a FD1 flag is present, it means FDA information can either be disclaimed if the shipment does not fall under FDA regulations, or claimed if the item does fall under FDA regulations. If you are unsure whether or not your item is FDA regulated, a customs broker should be able to assist.  
+If FDA is to be claimed, some of the key data elements required will be "Commodity", "Subtype", "Product", and "Intended Use" Codes depending on the imported commodity. Other additional data elements may be required. Please refer to the FDA's government website for up to date requirements for FDA imports.</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/industry/fda-import-process/entry-submission</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>FDA data required 801(a)</t>
+  </si>
+  <si>
+    <t>This item may be flagged FD2 upon importation into the US. If a FD2 flag is present, it means additional FDA information will be required upon importation.  
+Some of the key data elements  required will be "Commodity", "Subtype", "Product", and "Intended Use" Codes depending on the imported commodity. Other additional data elements may be required. Please refer to the FDA's government website for up to date requirements for FDA imports.</t>
+  </si>
+  <si>
+    <t>FD3</t>
+  </si>
+  <si>
+    <t>FDA Prior Notice Data may be required 801(m)</t>
+  </si>
+  <si>
+    <t>https://www.ecfr.gov/current/title-21</t>
+  </si>
+  <si>
+    <t>FD4</t>
+  </si>
+  <si>
+    <t>AM1</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>USDA/Agricultural Marketing Service Data related to egg
+ products may be required</t>
+  </si>
+  <si>
+    <t>AM2</t>
+  </si>
+  <si>
+    <t>USDA/Agricultural Marketing Service Data Related to shell eggs is
+ required</t>
+  </si>
+  <si>
+    <t>AM3</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>USDA/Agricultural Marketing Service Data Related to marketing
+ orders may be required</t>
+  </si>
+  <si>
+    <t>AM4</t>
+  </si>
+  <si>
+    <t>AM6</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>USDA/Agricultural Marketing Service Data Related to peanuts is required</t>
+  </si>
+  <si>
+    <t>AM7</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>USDA/Agricultural Marketing Service Data Related to organics may be required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the HTS, this product may be flagged AM7, "USDA/Agricultural Marketing Service Data Related to organics may be required". 
+The AM7 flag means that this product may require an National Organic Program (NOP) Import Certificate if the product is claimed to be "organic". If the product is not claimed as organic, the filer may disclaim. 
+The National Organic Program (NOP) develops the rules &amp; regulations for the production, handling, labeling, and enforcement of all USDA organic products. 
+Please refer to organics requirements here: https://www.ams.usda.gov/rules-regulations/organic
+The NOP Import Certificate can be found here: https://www.ams.usda.gov/sites/default/files/media/NOP2110-1.pdf 
+If you are unsure whether or not your item is AMS/USDA regulated, a customs broker should be able to assist.  </t>
+  </si>
+  <si>
+    <t>https://www.ams.usda.gov/sites/default/files/media/NOP2110-1.pdf
+https://www.ams.usda.gov/rules-regulations/organic</t>
+  </si>
+  <si>
+    <t>7 CFR 205.1–205.690
+https://www.ecfr.gov/current/title-7/subtitle-B/chapter-I/subchapter-M/part-205</t>
+  </si>
+  <si>
+    <t>AM8</t>
+  </si>
+  <si>
+    <t>USDA/Agricultural Marketing Service Data Related to organics is required</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>TTB</t>
+  </si>
+  <si>
+    <t>TTB data may be required Applicable to all TTB programs</t>
+  </si>
+  <si>
+    <t>TB2</t>
+  </si>
+  <si>
+    <t>TTB data is required Applicable to all TTB programs</t>
+  </si>
+  <si>
+    <t>TB3</t>
+  </si>
+  <si>
+    <t>TTB data may be required, which can only be disclaimed using
+ codes A or C</t>
+  </si>
+  <si>
+    <t>AQ1</t>
+  </si>
+  <si>
+    <t>APHIS data may be required</t>
+  </si>
+  <si>
+    <t>Based on the HTS, this product may be flagged AQ1, "APHIS data may be required".
+For products flagged with AQ1, it is dependent on the presence of a license, permit, certificate or other (LPCO) document for admissibility. If your products do not require a LPCO then you may disclaim A (product not regulated by APHIS) or disclaim B (per agency guidance). For shipments that do require a LPCO, an APHIS Core Messgae set needs to be filed. 
+For more information on APHIS and LPCOs, visit the APHIS Supplemental Trade Guide at https://www.cbp.gov/document/guidance/aphis-ace-pga-message-set-implementation-guide-core</t>
+  </si>
+  <si>
+    <t>https://wwwaphisusdagov/ace/aphis-core-message-set-questions-answers</t>
+  </si>
+  <si>
+    <t>AQ2</t>
+  </si>
+  <si>
+    <t>APHIS data is required</t>
+  </si>
+  <si>
+    <t>Based on the HTS, this product may be flagged AQ2, "APHIS data is required".
+For products flagged with AQ2, an APHIS Core Messgae set must be filed. A message set must be filed even if LPCOs (license, permit, certificate or other) are not required as a condition of entry. 
+For more information on APHIS and LPCOs, visit the APHIS Supplemental Trade Guide at https://www.cbp.gov/document/guidance/aphis-ace-pga-message-set-implementation-guide-core</t>
+  </si>
+  <si>
+    <t>AQX</t>
+  </si>
+  <si>
+    <t>APHIS Data May be required (no disclaim required)</t>
+  </si>
+  <si>
+    <t>Based on the HTS, this product may be flagged AQX, "APHIS Data May be required (no disclaim required)", also known as a "warning". 
+For products flagged with AQX, it is dependent on the presence of a license, permit, certificate or other
+(LPCO) document for admissibility. If your products do not require a LPCO then ignore the warning - disclaim is not required. For shipments that do require a LPCO, an APHIS Core Messgae set needs to be filed. 
+For more information on APHIS and LPCOs, visit the APHIS Supplemental Trade Guide at https://www.cbp.gov/document/guidance/aphis-ace-pga-message-set-implementation-guide-core</t>
+  </si>
+  <si>
+    <t>OM1</t>
+  </si>
+  <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>US Department of State, Bureau of Oceans and International Environmental and Scientific Affairs, Office of Marine Conservation data may be required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods must comply with National Marine Fisheries Service (NMFS) regulations for seafood safety, however NMFS inspection may not be required </t>
+  </si>
+  <si>
+    <t>OM2</t>
+  </si>
+  <si>
+    <t>US Department of State, Bureau of Oceans and International
+ Environmental and Scientific Affairs, Office of Marine
+ Conservation data is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goods must comply with National Marine Fisheries Service (NMFS) regulations; NMFS inspection certificate required </t>
+  </si>
+  <si>
+    <t>FW1</t>
+  </si>
+  <si>
+    <t>FWS</t>
+  </si>
+  <si>
+    <t>US Fish and Wildlife Service data may be required, which can only be disclaimed using codes C, D or E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the HTS, this product may be flagged FW1, "US Fish and Wildlife Service data may be required, which can only be disclaimed using codes C, D or E". This indicates that goods entered under this HTS are likely to contain commodities (i.e., animal or animal products) that require FWS declaration and clearnace. 
+If the commodity contains animals or animal products that require declaration and clearance, the FWS ACE Message Set may be filed along with the appropriate documents. If the commodity does not contain animal or animal products that require FWS declaration and clearance, the goods can be disclaimed as having the presence of wildlife using the specific FWS disclaimer code. The burden of proof is on the importer to demonstrate that the goods described under these broad tariff codes do not require FWS declaration and clearance.
+For commodities that require clearance by FWS, the importer must obtain an FWS import license/permit prior to importing. 
+For any live or peridhable wildlife shipment that requires clearance by FWS, FWS inspectors must be notified 48 hours before shipment arrival at an authorized port of entry. If the shipment is not entered at an authorized port, it will be rejected by ACE and it will need to be moved to an appropriate port and refile the entry (designated ports in 50 CFR § 1412).
+Filing for products which flag for FW1: No processing code should be entered if a Disclaimer is used for this specific HTS. 
+FWS Form 3-177 must be completed and filed for most wildlife upon import (under FWS laws, this is upon arrival and not entry into US commerce). See more requirements in 50 CFR 1452. For more information on ACE filing requirements, please visit https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements
+CITES documentation required if endangered species </t>
+  </si>
+  <si>
+    <t>https://wwwcbpgov/document/guidance/us-fish-and-wildlife-service-ace-requirements
+https://www.fws.gov/media/wildlife-shipments-declaration-form-3-177</t>
+  </si>
+  <si>
+    <t>https://www.ecfr.gov/current/title-50</t>
+  </si>
+  <si>
+    <t>FW2</t>
+  </si>
+  <si>
+    <t>US Fish and Wildlife Service data is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Based on the HTS, this product may be flagged FW2, "US Fish and Wildlife Service data is required". This indicates that goods entered under this HTS always require clearnace by FWS. For these commodities that require clearance by FWS, the importer must obtain an FWS import license/permit prior to importing. 
+For any live or perishable wildlife shipment that requires clearance by FWS, FWS inspectors must be notified 48 hours before shipment arrival at an authorized port of entry. If the shipment is not entered at an authorized port, it will be rejected by ACE and it will need to be moved to an appropriate port and refile the entry (designated ports in 50 CFR § 1412).
+Filing for products which flag for FW2:  The filed may file an FWS ACE Message Set or an FWS Form 3-177 must be completed and filed for most wildlife upon import (under FWS laws, this is upon arrival and not entry into US commerce). See more requirements in 50 CFR 1452. For more information on ACE filing requirements, please visit https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements
+CITES documentation required if endangered species </t>
+  </si>
+  <si>
+    <t>FW3</t>
+  </si>
+  <si>
+    <t>US Fish and Wildlife Service data may be required, which can
+ only be disclaimed using code C or D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on the HTS, this product may flag for FW3, "US Fish and Wildlife Service data may be required, which can only be disclaimed using code C or D". This indicates that goods entered under this HTS always require clearnace by FWS.
+For any live or peridhable wildlife shipment that requires clearance by FWS, FWS inspectors must be notified 48 hours before shipment arrival at an authorized port of entry. If the shipment is not entered at an authorized port, it will be rejected by ACE and it will need to be moved to an appropriate port and refile the entry (designated ports in 50 CFR § 1412).
+Filing for products which flag for FW3:  While this flag indicates “data may be required,” all commodities under this flag require clearance by FWS. However, since filing the full FWS Form 3-177 data and document in ACE is not mandatory, the flag is treated as a “maybe” flag. For HTS codes that flag FW3, an FWS ACE Message Set and appropriate documents may be filed in the DIS or an FWS Form 3-177 data and documents in eDecs or via paper. In these cases, the filed will submit a disclaim code indicating how the data is being provided.
+See more requirements in 50 CFR 1452. For more information on ACE filing requirements, please visit https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements
+CITES documentation required if endangered species </t>
+  </si>
+  <si>
+    <t>DE1</t>
+  </si>
+  <si>
+    <t>DEA</t>
+  </si>
+  <si>
+    <t>US Drug Enforcement Administration data may be required</t>
+  </si>
+  <si>
+    <t>https://www.cbp.gov/sites/default/files/assets/documents/2020-Feb/Implementation%20Guide%20for%20DEA%20V2.6%2003-23-2017%20-%20Master.pdf
+https://www.ecfr.gov/current/title-21/chapter-II</t>
+  </si>
+  <si>
+    <t>Restriction Type</t>
+  </si>
+  <si>
+    <t>Restricted</t>
+  </si>
+  <si>
+    <t>Prohibited</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>PGA Compliance Message</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Based on the HTS, this  product may be flagged AL1, "Lacey Act specific data may be required". The Lacey Act, which combats trafficking in illegally taken wildlife, fish, or plants, requires importers to prepare an import declaration for certain plants and plant products. 
 The AL1 flag means that this product may be regulated by </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -331,7 +602,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -343,33 +614,14 @@
     </r>
   </si>
   <si>
-    <t>https://www.aphis.usda.gov/plant-imports/lacey-act/submit-declaration
-https://www.cbp.gov/trade/entry-summary/public-laws-impacting-trade/public-law-110-246/amended-lacey-act/guidance-lacey-act</t>
-  </si>
-  <si>
-    <t>https://www.ecfr.gov/current/title-7/subtitle-B/chapter-III</t>
-  </si>
-  <si>
-    <t>AL2</t>
-  </si>
-  <si>
-    <t>Lacey Act specific data required</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Based on the HTS, this  product may be flagged AL2, "Lacey Act specific data is required". The Lacey Act, which combats trafficking in illegally taken wildlife, fish, or plants, requires importers to prepare an import declaration for certain plants and plant products. 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -378,7 +630,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -390,342 +642,86 @@
     </r>
   </si>
   <si>
-    <t>FD1</t>
-  </si>
-  <si>
-    <t>FDA</t>
-  </si>
-  <si>
-    <t>BIO
- COS
- DEV
- DRU
- FOO
- RAD
- TOB
- VME</t>
-  </si>
-  <si>
-    <t>FDA data may be required 801(a)</t>
-  </si>
-  <si>
-    <t>This item may be flagged FD1 upon importation into the US . If a FD1 flag is present, it means FDA information can either be disclaimed if the shipment does not fall under FDA regulations, or claimed if the item does fall under FDA regulations. If you are unsure whether or not your item is FDA regulated, a customs broker should be able to assist.  
-If FDA is to be claimed, some of the key data elements required will be "Commodity", "Subtype", "Product", and "Intended Use" Codes depending on the imported commodity. Other additional data elements may be required. Please refer to the FDA's government website for up to date requirements for FDA imports.</t>
-  </si>
-  <si>
-    <t>https://www.fda.gov/industry/fda-import-process/entry-submission</t>
-  </si>
-  <si>
-    <t>FD2</t>
-  </si>
-  <si>
-    <t>FDA data required 801(a)</t>
-  </si>
-  <si>
-    <t>This item may be flagged FD2 upon importation into the US. If a FD2 flag is present, it means additional FDA information will be required upon importation.  
-Some of the key data elements  required will be "Commodity", "Subtype", "Product", and "Intended Use" Codes depending on the imported commodity. Other additional data elements may be required. Please refer to the FDA's government website for up to date requirements for FDA imports.</t>
-  </si>
-  <si>
-    <t>FD3</t>
-  </si>
-  <si>
-    <t>FDA Prior Notice Data may be required 801(m)</t>
-  </si>
-  <si>
-    <t>https://www.ecfr.gov/current/title-21</t>
-  </si>
-  <si>
-    <t>FD4</t>
-  </si>
-  <si>
-    <t>AM1</t>
-  </si>
-  <si>
-    <t>AMS</t>
-  </si>
-  <si>
-    <t>EG</t>
-  </si>
-  <si>
-    <t>USDA/Agricultural Marketing Service Data related to egg
- products may be required</t>
-  </si>
-  <si>
-    <t>AM2</t>
-  </si>
-  <si>
-    <t>USDA/Agricultural Marketing Service Data Related to shell eggs is
- required</t>
-  </si>
-  <si>
-    <t>AM3</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>USDA/Agricultural Marketing Service Data Related to marketing
- orders may be required</t>
-  </si>
-  <si>
-    <t>AM4</t>
-  </si>
-  <si>
-    <t>AM6</t>
-  </si>
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>USDA/Agricultural Marketing Service Data Related to peanuts is required</t>
-  </si>
-  <si>
-    <t>AM7</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>USDA/Agricultural Marketing Service Data Related to organics may be required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on the HTS, this product may be flagged AM7, "USDA/Agricultural Marketing Service Data Related to organics may be required". 
-The AM7 flag means that this product may require an National Organic Program (NOP) Import Certificate if the product is claimed to be "organic". If the product is not claimed as organic, the filer may disclaim. 
-The National Organic Program (NOP) develops the rules &amp; regulations for the production, handling, labeling, and enforcement of all USDA organic products. 
-Please refer to organics requirements here: https://www.ams.usda.gov/rules-regulations/organic
-The NOP Import Certificate can be found here: https://www.ams.usda.gov/sites/default/files/media/NOP2110-1.pdf 
-If you are unsure whether or not your item is AMS/USDA regulated, a customs broker should be able to assist.  </t>
-  </si>
-  <si>
-    <t>https://www.ams.usda.gov/sites/default/files/media/NOP2110-1.pdf
-https://www.ams.usda.gov/rules-regulations/organic</t>
-  </si>
-  <si>
-    <t>7 CFR 205.1–205.690
-https://www.ecfr.gov/current/title-7/subtitle-B/chapter-I/subchapter-M/part-205</t>
-  </si>
-  <si>
-    <t>AM8</t>
-  </si>
-  <si>
-    <t>USDA/Agricultural Marketing Service Data Related to organics is required</t>
-  </si>
-  <si>
-    <t>TB1</t>
-  </si>
-  <si>
-    <t>TTB</t>
-  </si>
-  <si>
-    <t>BER
- WIN
- DSP
- TOB</t>
-  </si>
-  <si>
-    <t>TTB data may be required Applicable to all TTB programs</t>
-  </si>
-  <si>
-    <t>TB2</t>
-  </si>
-  <si>
-    <t>TTB data is required Applicable to all TTB programs</t>
-  </si>
-  <si>
-    <t>TB3</t>
-  </si>
-  <si>
-    <t>TTB data may be required, which can only be disclaimed using
- codes A or C</t>
-  </si>
-  <si>
-    <t>AQ1</t>
-  </si>
-  <si>
-    <t>AAC
- APQ
- AVS
- ABS</t>
-  </si>
-  <si>
-    <t>APHIS data may be required</t>
-  </si>
-  <si>
-    <t>Based on the HTS, this product may be flagged AQ1, "APHIS data may be required".
-For products flagged with AQ1, it is dependent on the presence of a license, permit, certificate or other (LPCO) document for admissibility. If your products do not require a LPCO then you may disclaim A (product not regulated by APHIS) or disclaim B (per agency guidance). For shipments that do require a LPCO, an APHIS Core Messgae set needs to be filed. 
-For more information on APHIS and LPCOs, visit the APHIS Supplemental Trade Guide at https://www.cbp.gov/document/guidance/aphis-ace-pga-message-set-implementation-guide-core</t>
-  </si>
-  <si>
-    <t>https://wwwaphisusdagov/ace/aphis-core-message-set-questions-answers</t>
-  </si>
-  <si>
-    <t>AQ2</t>
-  </si>
-  <si>
-    <t>APHIS data is required</t>
-  </si>
-  <si>
-    <t>Based on the HTS, this product may be flagged AQ2, "APHIS data is required".
-For products flagged with AQ2, an APHIS Core Messgae set must be filed. A message set must be filed even if LPCOs (license, permit, certificate or other) are not required as a condition of entry. 
-For more information on APHIS and LPCOs, visit the APHIS Supplemental Trade Guide at https://www.cbp.gov/document/guidance/aphis-ace-pga-message-set-implementation-guide-core</t>
-  </si>
-  <si>
-    <t>AQX</t>
-  </si>
-  <si>
-    <t>APHIS Data May be required (no disclaim required)</t>
-  </si>
-  <si>
-    <t>Based on the HTS, this product may be flagged AQX, "APHIS Data May be required (no disclaim required)", also known as a "warning". 
-For products flagged with AQX, it is dependent on the presence of a license, permit, certificate or other
-(LPCO) document for admissibility. If your products do not require a LPCO then ignore the warning - disclaim is not required. For shipments that do require a LPCO, an APHIS Core Messgae set needs to be filed. 
-For more information on APHIS and LPCOs, visit the APHIS Supplemental Trade Guide at https://www.cbp.gov/document/guidance/aphis-ace-pga-message-set-implementation-guide-core</t>
-  </si>
-  <si>
-    <t>OM1</t>
-  </si>
-  <si>
-    <t>OMC</t>
-  </si>
-  <si>
-    <t>US Department of State, Bureau of Oceans and International Environmental and Scientific Affairs, Office of Marine Conservation data may be required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods must comply with National Marine Fisheries Service (NMFS) regulations for seafood safety, however NMFS inspection may not be required </t>
-  </si>
-  <si>
-    <t>OM2</t>
-  </si>
-  <si>
-    <t>US Department of State, Bureau of Oceans and International
- Environmental and Scientific Affairs, Office of Marine
- Conservation data is required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goods must comply with National Marine Fisheries Service (NMFS) regulations; NMFS inspection certificate required </t>
-  </si>
-  <si>
-    <t>FW1</t>
-  </si>
-  <si>
-    <t>FWS</t>
-  </si>
-  <si>
-    <t>US Fish and Wildlife Service data may be required, which can only be disclaimed using codes C, D or E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on the HTS, this product may be flagged FW1, "US Fish and Wildlife Service data may be required, which can only be disclaimed using codes C, D or E". This indicates that goods entered under this HTS are likely to contain commodities (i.e., animal or animal products) that require FWS declaration and clearnace. 
-If the commodity contains animals or animal products that require declaration and clearance, the FWS ACE Message Set may be filed along with the appropriate documents. If the commodity does not contain animal or animal products that require FWS declaration and clearance, the goods can be disclaimed as having the presence of wildlife using the specific FWS disclaimer code. The burden of proof is on the importer to demonstrate that the goods described under these broad tariff codes do not require FWS declaration and clearance.
-For commodities that require clearance by FWS, the importer must obtain an FWS import license/permit prior to importing. 
-For any live or peridhable wildlife shipment that requires clearance by FWS, FWS inspectors must be notified 48 hours before shipment arrival at an authorized port of entry. If the shipment is not entered at an authorized port, it will be rejected by ACE and it will need to be moved to an appropriate port and refile the entry (designated ports in 50 CFR § 1412).
-Filing for products which flag for FW1: No processing code should be entered if a Disclaimer is used for this specific HTS. 
-FWS Form 3-177 must be completed and filed for most wildlife upon import (under FWS laws, this is upon arrival and not entry into US commerce). See more requirements in 50 CFR 1452. For more information on ACE filing requirements, please visit https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements
-CITES documentation required if endangered species </t>
-  </si>
-  <si>
-    <t>https://wwwcbpgov/document/guidance/us-fish-and-wildlife-service-ace-requirements
-https://www.fws.gov/media/wildlife-shipments-declaration-form-3-177</t>
-  </si>
-  <si>
-    <t>https://www.ecfr.gov/current/title-50</t>
-  </si>
-  <si>
-    <t>FW2</t>
-  </si>
-  <si>
-    <t>US Fish and Wildlife Service data is required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Based on the HTS, this product may be flagged FW2, "US Fish and Wildlife Service data is required". This indicates that goods entered under this HTS always require clearnace by FWS. For these commodities that require clearance by FWS, the importer must obtain an FWS import license/permit prior to importing. 
-For any live or perishable wildlife shipment that requires clearance by FWS, FWS inspectors must be notified 48 hours before shipment arrival at an authorized port of entry. If the shipment is not entered at an authorized port, it will be rejected by ACE and it will need to be moved to an appropriate port and refile the entry (designated ports in 50 CFR § 1412).
-Filing for products which flag for FW2:  The filed may file an FWS ACE Message Set or an FWS Form 3-177 must be completed and filed for most wildlife upon import (under FWS laws, this is upon arrival and not entry into US commerce). See more requirements in 50 CFR 1452. For more information on ACE filing requirements, please visit https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements
-CITES documentation required if endangered species </t>
-  </si>
-  <si>
-    <t>FW3</t>
-  </si>
-  <si>
-    <t>US Fish and Wildlife Service data may be required, which can
- only be disclaimed using code C or D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on the HTS, this product may flag for FW3, "US Fish and Wildlife Service data may be required, which can only be disclaimed using code C or D". This indicates that goods entered under this HTS always require clearnace by FWS.
-For any live or peridhable wildlife shipment that requires clearance by FWS, FWS inspectors must be notified 48 hours before shipment arrival at an authorized port of entry. If the shipment is not entered at an authorized port, it will be rejected by ACE and it will need to be moved to an appropriate port and refile the entry (designated ports in 50 CFR § 1412).
-Filing for products which flag for FW3:  While this flag indicates “data may be required,” all commodities under this flag require clearance by FWS. However, since filing the full FWS Form 3-177 data and document in ACE is not mandatory, the flag is treated as a “maybe” flag. For HTS codes that flag FW3, an FWS ACE Message Set and appropriate documents may be filed in the DIS or an FWS Form 3-177 data and documents in eDecs or via paper. In these cases, the filed will submit a disclaim code indicating how the data is being provided.
-See more requirements in 50 CFR 1452. For more information on ACE filing requirements, please visit https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements
-CITES documentation required if endangered species </t>
-  </si>
-  <si>
-    <t>DE1</t>
-  </si>
-  <si>
-    <t>DEA</t>
-  </si>
-  <si>
-    <t>US Drug Enforcement Administration data may be required</t>
-  </si>
-  <si>
-    <t>https://www.cbp.gov/sites/default/files/assets/documents/2020-Feb/Implementation%20Guide%20for%20DEA%20V2.6%2003-23-2017%20-%20Master.pdf
-https://www.ecfr.gov/current/title-21/chapter-II</t>
-  </si>
-  <si>
-    <t>APPROVED 10 digit generice messaging example (Pulled from ACE data)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD1 applies to this product, TEXT,&lt;5MM LENGTH,OTHER ARTICLES OF COTTON:WADDING,OTHER. Please refer to FD1 guidance. </t>
-  </si>
-  <si>
-    <t>Restriction Type</t>
-  </si>
-  <si>
-    <t>Restricted</t>
-  </si>
-  <si>
-    <t>Prohibited</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>Documents</t>
-  </si>
-  <si>
-    <t>PGA Compliance Message</t>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>APQ</t>
+  </si>
+  <si>
+    <t>AVS</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>DRU</t>
+  </si>
+  <si>
+    <t>FOO</t>
+  </si>
+  <si>
+    <t>RAD</t>
+  </si>
+  <si>
+    <t>TOB</t>
+  </si>
+  <si>
+    <t>VME</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>OEI</t>
+  </si>
+  <si>
+    <t>TPE</t>
+  </si>
+  <si>
+    <t>REI</t>
+  </si>
+  <si>
+    <t>MVS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -736,45 +732,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="16"/>
       <color rgb="FF171717"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,12 +815,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,87 +910,78 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1325,19 +1335,19 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="57.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="13" customWidth="1"/>
     <col min="6" max="6" width="117" style="12" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="13" customWidth="1"/>
@@ -1362,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -1452,33 +1462,33 @@
       <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>8</v>
@@ -1487,18 +1497,15 @@
         <v>9</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>8</v>
@@ -1507,32 +1514,32 @@
         <v>13</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>8</v>
@@ -1541,805 +1548,2049 @@
         <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10">
-        <v>370</v>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="10">
-        <v>370</v>
+      <c r="D15" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10">
+        <v>370</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10">
+        <v>370</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="11" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="11" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="B23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="11" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="B24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="11" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="F25" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="G25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="16" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="B30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="F30" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="17" t="s">
+      <c r="G30" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>112</v>
+        <v>70</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>118</v>
+        <v>77</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>135</v>
+        <v>77</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>140</v>
+      <c r="D45" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>140</v>
+        <v>13</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>144</v>
+        <v>81</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="9" t="s">
+    </row>
+    <row r="112" spans="1:8" ht="22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-    </row>
-    <row r="51" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>161</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A51:D51"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G39:G41" r:id="rId1" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{F02B3A22-D787-9C4B-ABF3-F38EAF5AA856}"/>
-    <hyperlink ref="G40" r:id="rId2" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{E22C77C9-0F02-0046-8D24-12496812CF57}"/>
-    <hyperlink ref="G41" r:id="rId3" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{6BCE4EBD-DD08-3A45-91BA-7578E3049DFD}"/>
-    <hyperlink ref="G44" r:id="rId4" display="https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements" xr:uid="{9EA334F2-9B9B-B944-AC87-D2C24A6CD134}"/>
-    <hyperlink ref="G45" r:id="rId5" display="https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements" xr:uid="{D8275D47-E96D-DD4B-9319-68D32471635B}"/>
-    <hyperlink ref="G46" r:id="rId6" display="https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements" xr:uid="{747D6F88-CD60-4D4C-B007-03E00A5AF8C5}"/>
-    <hyperlink ref="G28" r:id="rId7" xr:uid="{9AD44B52-26FA-F346-8C97-A372F25C3A53}"/>
-    <hyperlink ref="G39" r:id="rId8" xr:uid="{494FBC9B-F57B-0649-BBA6-EC318D8EF08C}"/>
-    <hyperlink ref="G25" r:id="rId9" xr:uid="{8AF3E0A5-3A06-5843-A35D-723BC8113100}"/>
-    <hyperlink ref="G26" r:id="rId10" xr:uid="{B1C00E05-927E-8040-8F36-B9A4E4165FD0}"/>
-    <hyperlink ref="G27" r:id="rId11" xr:uid="{0511111D-72DA-4D48-BACA-92EBB970050E}"/>
-    <hyperlink ref="G47" r:id="rId12" display="https://www.cbp.gov/sites/default/files/assets/documents/2020-Feb/Implementation%20Guide%20for%20DEA%20V2.6%2003-23-2017%20-%20Master.pdf" xr:uid="{784562C7-7333-5A48-9218-C95E3CF785C0}"/>
-    <hyperlink ref="G34" r:id="rId13" display="https://www.ams.usda.gov/sites/default/files/media/NOP2110-1.pdf" xr:uid="{0F0B47F1-EF91-D248-A320-15B5CB511375}"/>
-    <hyperlink ref="H23" r:id="rId14" xr:uid="{7B1B8744-9546-1749-95B2-3DDFA9EE408C}"/>
-    <hyperlink ref="G24" r:id="rId15" display="https://www.aphis.usda.gov/plant-imports/lacey-act/submit-declaration" xr:uid="{FC0C0720-AB8A-7A44-BC17-44EDAC17AFA0}"/>
-    <hyperlink ref="H24" r:id="rId16" xr:uid="{4B9B3FD7-2FF0-B344-92EE-F437BFD9F383}"/>
-    <hyperlink ref="G23" r:id="rId17" display="https://www.aphis.usda.gov/plant-imports/lacey-act/submit-declaration" xr:uid="{319F5F53-D5E4-F646-A535-04CBA105D35A}"/>
-    <hyperlink ref="G21" r:id="rId18" xr:uid="{961D310D-E932-EB40-A5A5-E5A65594AED2}"/>
-    <hyperlink ref="G22" r:id="rId19" xr:uid="{6D0BCF6F-D196-1F40-9544-EF81885B887D}"/>
-    <hyperlink ref="H44" r:id="rId20" xr:uid="{177E892D-57E5-794D-A677-3E23A8E53C6D}"/>
-    <hyperlink ref="H46" r:id="rId21" xr:uid="{168A751F-76FD-CE43-B53F-0BE8D361D49D}"/>
-    <hyperlink ref="H45" r:id="rId22" xr:uid="{C19E4F95-BD2B-9349-95C5-7032BDCBBE4F}"/>
+    <hyperlink ref="G88:G96" r:id="rId1" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{F02B3A22-D787-9C4B-ABF3-F38EAF5AA856}"/>
+    <hyperlink ref="G92" r:id="rId2" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{E22C77C9-0F02-0046-8D24-12496812CF57}"/>
+    <hyperlink ref="G96" r:id="rId3" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{6BCE4EBD-DD08-3A45-91BA-7578E3049DFD}"/>
+    <hyperlink ref="G102" r:id="rId4" display="https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements" xr:uid="{9EA334F2-9B9B-B944-AC87-D2C24A6CD134}"/>
+    <hyperlink ref="G103" r:id="rId5" display="https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements" xr:uid="{D8275D47-E96D-DD4B-9319-68D32471635B}"/>
+    <hyperlink ref="G104" r:id="rId6" display="https://www.cbp.gov/document/guidance/us-fish-and-wildlife-service-ace-requirements" xr:uid="{747D6F88-CD60-4D4C-B007-03E00A5AF8C5}"/>
+    <hyperlink ref="G61" r:id="rId7" xr:uid="{9AD44B52-26FA-F346-8C97-A372F25C3A53}"/>
+    <hyperlink ref="G88" r:id="rId8" xr:uid="{494FBC9B-F57B-0649-BBA6-EC318D8EF08C}"/>
+    <hyperlink ref="G37" r:id="rId9" xr:uid="{8AF3E0A5-3A06-5843-A35D-723BC8113100}"/>
+    <hyperlink ref="G45" r:id="rId10" xr:uid="{B1C00E05-927E-8040-8F36-B9A4E4165FD0}"/>
+    <hyperlink ref="G53" r:id="rId11" xr:uid="{0511111D-72DA-4D48-BACA-92EBB970050E}"/>
+    <hyperlink ref="G105" r:id="rId12" display="https://www.cbp.gov/sites/default/files/assets/documents/2020-Feb/Implementation%20Guide%20for%20DEA%20V2.6%2003-23-2017%20-%20Master.pdf" xr:uid="{784562C7-7333-5A48-9218-C95E3CF785C0}"/>
+    <hyperlink ref="G74" r:id="rId13" display="https://www.ams.usda.gov/sites/default/files/media/NOP2110-1.pdf" xr:uid="{0F0B47F1-EF91-D248-A320-15B5CB511375}"/>
+    <hyperlink ref="H35" r:id="rId14" xr:uid="{7B1B8744-9546-1749-95B2-3DDFA9EE408C}"/>
+    <hyperlink ref="G36" r:id="rId15" display="https://www.aphis.usda.gov/plant-imports/lacey-act/submit-declaration" xr:uid="{FC0C0720-AB8A-7A44-BC17-44EDAC17AFA0}"/>
+    <hyperlink ref="H36" r:id="rId16" xr:uid="{4B9B3FD7-2FF0-B344-92EE-F437BFD9F383}"/>
+    <hyperlink ref="G35" r:id="rId17" display="https://www.aphis.usda.gov/plant-imports/lacey-act/submit-declaration" xr:uid="{319F5F53-D5E4-F646-A535-04CBA105D35A}"/>
+    <hyperlink ref="G25" r:id="rId18" xr:uid="{961D310D-E932-EB40-A5A5-E5A65594AED2}"/>
+    <hyperlink ref="G30" r:id="rId19" xr:uid="{6D0BCF6F-D196-1F40-9544-EF81885B887D}"/>
+    <hyperlink ref="H102" r:id="rId20" xr:uid="{177E892D-57E5-794D-A677-3E23A8E53C6D}"/>
+    <hyperlink ref="H104" r:id="rId21" xr:uid="{168A751F-76FD-CE43-B53F-0BE8D361D49D}"/>
+    <hyperlink ref="H103" r:id="rId22" xr:uid="{C19E4F95-BD2B-9349-95C5-7032BDCBBE4F}"/>
+    <hyperlink ref="G99" r:id="rId23" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{26143FE3-09D2-EA40-B5F6-57C4E5D185E9}"/>
+    <hyperlink ref="G98" r:id="rId24" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{001DD116-DD81-0D46-BDF6-FD7B41E526B5}"/>
+    <hyperlink ref="G97" r:id="rId25" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{3884E3C7-9982-C74E-A441-9FD75E10968B}"/>
+    <hyperlink ref="G95" r:id="rId26" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{E99CF7D8-27B0-D241-84A1-87D049EA4702}"/>
+    <hyperlink ref="G94" r:id="rId27" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{A8799D6C-C716-0F48-B6E5-36E63390DAB9}"/>
+    <hyperlink ref="G93" r:id="rId28" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{4C6BA3BC-1CF8-174E-A681-A38D48C71AB0}"/>
+    <hyperlink ref="G38" r:id="rId29" xr:uid="{FF0DF8CA-EB4A-E749-94C4-99132D2154F1}"/>
+    <hyperlink ref="G39" r:id="rId30" xr:uid="{AD5E6588-AB97-C940-9218-03BFEBDDAC98}"/>
+    <hyperlink ref="G40" r:id="rId31" xr:uid="{31E466A3-4646-FF49-B534-4F505E4FE5DA}"/>
+    <hyperlink ref="G41" r:id="rId32" xr:uid="{F68B4FD4-F2F4-C645-9E1F-AE2AEFB9F567}"/>
+    <hyperlink ref="G42" r:id="rId33" xr:uid="{AB23FCE5-65F9-0E4D-B360-798E8CA815A3}"/>
+    <hyperlink ref="G43" r:id="rId34" xr:uid="{9E541622-F134-5A48-9244-247E4EA5A725}"/>
+    <hyperlink ref="G44" r:id="rId35" xr:uid="{7C1EA313-CC6A-C14C-B12C-F2FD7931F0BC}"/>
+    <hyperlink ref="G89" r:id="rId36" xr:uid="{CDF38AA6-D94A-1A46-B261-8069E6C9E442}"/>
+    <hyperlink ref="G90:G91" r:id="rId37" display="https://www.aphis.usda.gov/ace/aphis-core-message-set-questions-answers" xr:uid="{5488B982-837E-454C-A314-1255AD596606}"/>
+    <hyperlink ref="G90" r:id="rId38" xr:uid="{1B82B017-7CA3-DC4E-8290-C98573ACEB9D}"/>
+    <hyperlink ref="G91" r:id="rId39" xr:uid="{A072348F-A378-654F-BD53-AD61236FBE68}"/>
+    <hyperlink ref="G26" r:id="rId40" xr:uid="{0308E827-7805-9442-9840-FBAF1717874B}"/>
+    <hyperlink ref="G27" r:id="rId41" xr:uid="{A5D8EA5D-DAB4-6C4E-ACAD-D44A9EAC2B63}"/>
+    <hyperlink ref="G28" r:id="rId42" xr:uid="{E9AD8300-3627-0B4A-A9FD-FE62FC852C2C}"/>
+    <hyperlink ref="G29" r:id="rId43" xr:uid="{006E5B92-2388-7C43-B88A-A5CC4218273E}"/>
+    <hyperlink ref="G31" r:id="rId44" xr:uid="{B3B531B2-8690-4E4C-AF0F-C1A06866349A}"/>
+    <hyperlink ref="G32" r:id="rId45" xr:uid="{9F127E5F-F6F6-2242-B130-82945015729C}"/>
+    <hyperlink ref="G33" r:id="rId46" xr:uid="{251F01EE-715A-4049-8BBF-0191A19B45C9}"/>
+    <hyperlink ref="G34" r:id="rId47" xr:uid="{E2E08C38-DA53-7D4C-B114-8D2C103B7FA0}"/>
+    <hyperlink ref="G62" r:id="rId48" xr:uid="{22C5FBEC-123D-6F4A-A0B8-2074B7D9FFDA}"/>
+    <hyperlink ref="G63" r:id="rId49" xr:uid="{E622DC30-29E7-E940-9CC0-747FAE168E11}"/>
+    <hyperlink ref="G64" r:id="rId50" xr:uid="{E7520187-F26D-9E48-9F92-AFEC9B74AD0A}"/>
+    <hyperlink ref="G65" r:id="rId51" xr:uid="{8D9E727F-D7B0-0647-8E10-36069DB75FCE}"/>
+    <hyperlink ref="G66" r:id="rId52" xr:uid="{09F39D8F-3002-EC40-9A61-251A29AAD8D8}"/>
+    <hyperlink ref="G67" r:id="rId53" xr:uid="{014CF75A-70D5-8944-8943-E0703AD5ACD8}"/>
+    <hyperlink ref="G68" r:id="rId54" xr:uid="{6E461B18-0ACA-4548-BF10-D31A922732A7}"/>
+    <hyperlink ref="G54" r:id="rId55" xr:uid="{AC3C84CE-E5C0-8A41-9F1C-7269770A7EC0}"/>
+    <hyperlink ref="G55" r:id="rId56" xr:uid="{033D8920-BB26-D446-A7AE-81D0A92463C9}"/>
+    <hyperlink ref="G56" r:id="rId57" xr:uid="{C48EDC1E-F0AE-6D42-AB76-D197965B0B77}"/>
+    <hyperlink ref="G57" r:id="rId58" xr:uid="{F59EA41A-D5F4-9D49-9D03-CD2E1F109285}"/>
+    <hyperlink ref="G58" r:id="rId59" xr:uid="{19A55936-DC80-0149-B7DF-590306C49D6E}"/>
+    <hyperlink ref="G59" r:id="rId60" xr:uid="{7CD910F7-A576-8740-977F-527706A7D10F}"/>
+    <hyperlink ref="G60" r:id="rId61" xr:uid="{F1B69064-E31E-BA47-BD28-313D729CFC50}"/>
+    <hyperlink ref="G46" r:id="rId62" xr:uid="{7E51524F-253D-DE4C-A732-24206B601CCF}"/>
+    <hyperlink ref="G47" r:id="rId63" xr:uid="{75348852-3033-2F44-AE2E-A3B655F0B3D2}"/>
+    <hyperlink ref="G48" r:id="rId64" xr:uid="{70F682C5-38EA-AC4E-90C6-4BDA3A7B9F6C}"/>
+    <hyperlink ref="G49" r:id="rId65" xr:uid="{A47C2F39-5C5C-1242-9BCE-B603ED458DF9}"/>
+    <hyperlink ref="G50" r:id="rId66" xr:uid="{85DAA5D2-C2BB-BA40-9B61-E3B8B23134C9}"/>
+    <hyperlink ref="G51" r:id="rId67" xr:uid="{C48D6FCA-7855-1549-BE02-0EAF3BF532AC}"/>
+    <hyperlink ref="G52" r:id="rId68" xr:uid="{EA742FC5-5F8E-6147-9ED0-DD5936A75B44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId23"/>
+  <legacyDrawing r:id="rId69"/>
 </worksheet>
 </file>